--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
     <sheet name="控件属性已经操作方法" sheetId="17" r:id="rId2"/>
     <sheet name="其他" sheetId="1" r:id="rId3"/>
+    <sheet name="测试一" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +220,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>个人用户:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -234,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +246,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>个人用户:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -256,7 +257,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹框</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -389,8 +390,133 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
   <si>
     <t>用例编号</t>
   </si>
@@ -417,14 +543,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>控件类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -441,35 +559,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -581,18 +671,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>文本框</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -622,10 +704,6 @@
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -691,6 +769,42 @@
   </si>
   <si>
     <t>紧固件强度校核--紧固件强度校核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,6 +1016,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,31 +1352,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -1262,33 +1385,33 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1.1499999999999999</v>
@@ -1303,37 +1426,37 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
@@ -1460,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1471,235 +1594,171 @@
     <col min="1" max="1" width="15" style="15" customWidth="1"/>
     <col min="2" max="5" width="9" style="15"/>
     <col min="6" max="6" width="12.25" style="15" customWidth="1"/>
-    <col min="7" max="16" width="9" style="15"/>
-    <col min="17" max="17" width="12.375" style="15" customWidth="1"/>
-    <col min="18" max="19" width="12.25" style="15" customWidth="1"/>
-    <col min="20" max="20" width="12" style="15" customWidth="1"/>
-    <col min="21" max="22" width="9" style="15"/>
-    <col min="23" max="16384" width="9" style="20"/>
+    <col min="7" max="10" width="9" style="15"/>
+    <col min="11" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="C5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="6" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-    </row>
-    <row r="5" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
@@ -1728,424 +1787,144 @@
       <c r="J6" s="19">
         <v>0</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="G7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="19" t="s">
+    <row r="10" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="C10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1"/>
+    <row r="11" spans="1:10" ht="40.5" customHeight="1"/>
+    <row r="12" spans="1:10" ht="40.5" customHeight="1"/>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1"/>
+    <row r="14" spans="1:10" ht="40.5" customHeight="1"/>
+    <row r="15" spans="1:10" ht="40.5" customHeight="1"/>
+    <row r="16" spans="1:10" ht="40.5" customHeight="1"/>
     <row r="17" ht="40.5" customHeight="1"/>
     <row r="18" ht="40.5" customHeight="1"/>
     <row r="19" ht="40.5" customHeight="1"/>
-    <row r="20" ht="40.5" customHeight="1"/>
-    <row r="21" ht="40.5" customHeight="1"/>
-    <row r="22" ht="40.5" customHeight="1"/>
-    <row r="23" ht="40.5" customHeight="1"/>
-    <row r="24" ht="40.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2187,31 +1966,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -2220,36 +1999,36 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1.1499999999999999</v>
@@ -2264,43 +2043,43 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="U2" s="7"/>
     </row>
@@ -2318,4 +2097,157 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:21" s="9" customFormat="1" ht="87" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>用例编号</t>
   </si>
@@ -805,6 +805,10 @@
   </si>
   <si>
     <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1330,18 +1334,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,11 +1404,14 @@
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:33" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -1461,9 +1469,10 @@
       <c r="S2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="T2" s="2"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1483,21 +1492,22 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="7"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1517,21 +1527,22 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="13"/>
+      <c r="Y4" s="16"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
-    </row>
-    <row r="5" spans="1:32" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1551,28 +1562,50 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="2"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="T12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z4 N1:N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA4 N1:N2 T3:T1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA1048576 O1:O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB1048576 O1:O2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1934,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -1951,11 +1984,12 @@
     <col min="15" max="15" width="6" style="4" customWidth="1"/>
     <col min="16" max="19" width="6" style="5" customWidth="1"/>
     <col min="20" max="20" width="7.625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="6.625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="8"/>
+    <col min="21" max="21" width="13.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,11 +2050,14 @@
       <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2081,7 +2118,38 @@
       <c r="T2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" ht="73.5" customHeight="1">
+      <c r="U12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2089,7 +2157,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 U3:U1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2101,15 +2169,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="21" max="21" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2170,11 +2241,14 @@
       <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2235,12 +2309,43 @@
       <c r="T2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="U12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 U3:U1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2">

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,122 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="69">
   <si>
     <t>用例编号</t>
   </si>
@@ -1618,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2169,18 +2284,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="13.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,65 +2306,89 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="73.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -2258,97 +2398,131 @@
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E2" s="3">
+      <c r="N2" s="3">
         <v>1.35</v>
       </c>
-      <c r="F2" s="6">
+      <c r="O2" s="6">
         <v>1.45</v>
       </c>
-      <c r="G2" s="6">
+      <c r="P2" s="6">
         <v>0.9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="7">
+      <c r="AB2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="AC2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="U12" s="3"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="L3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="L4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="L5" s="3"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="L6" s="3"/>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="L7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="L8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="L9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="L10" s="3"/>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="L11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="L12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 U3:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W2 AD3:AD1048576 E1:E2 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X2 F1:F2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -685,10 +685,6 @@
     <t>操作子窗口标题</t>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果等待时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -924,6 +920,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1472,31 +1472,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -1517,10 +1517,10 @@
         <v>5</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="2" spans="1:33" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1.1499999999999999</v>
@@ -1549,37 +1549,37 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1749,31 +1749,31 @@
     <row r="1" spans="1:10" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
@@ -1781,31 +1781,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1">
@@ -1813,31 +1813,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="F3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40.5" customHeight="1">
@@ -1845,63 +1845,63 @@
         <v>10</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40.5" customHeight="1">
@@ -1938,130 +1938,130 @@
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="40.5" customHeight="1"/>
@@ -2115,31 +2115,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -2160,13 +2160,13 @@
         <v>5</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>12</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1.1499999999999999</v>
@@ -2195,43 +2195,43 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="7"/>
@@ -2286,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
@@ -2325,40 +2325,40 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>7</v>
@@ -2379,48 +2379,48 @@
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="3">
@@ -2436,43 +2436,43 @@
         <v>0.9</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="T2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="AB2" s="7">
         <v>1</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD2" s="2"/>
     </row>
